--- a/biology/Zoologie/Centrodus/Centrodus.xlsx
+++ b/biology/Zoologie/Centrodus/Centrodus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour le genre de conodontes Centrodus Pander, 1856, voir Lonchodus.
 Centrodus striatulus
@@ -513,10 +525,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Centrodus et l'espèce Centrodus striatulus ont été décrits en 1848 par le paléontologue irlandais Frederick McCoy (1817-1899)[1].
-Paleobiology Database                   (6 août 2022)[2] range désormais l'espèce Centrodus striatulus dans le genre éteint Megalichthys Agassiz, 1835.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Centrodus et l'espèce Centrodus striatulus ont été décrits en 1848 par le paléontologue irlandais Frederick McCoy (1817-1899).
+Paleobiology Database                   (6 août 2022) range désormais l'espèce Centrodus striatulus dans le genre éteint Megalichthys Agassiz, 1835.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La description faite par Frederick McCoy en 1848 se base sur des dents mesurant environ 13 mm de longueur et d'un diamètre de 3 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La description faite par Frederick McCoy en 1848 se base sur des dents mesurant environ 13 mm de longueur et d'un diamètre de 3 mm.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Centrodus, dérive du grec ancien κέντρον, kentron, « piquant, aiguillon », et ὀδόντος, odóntos, « dent »[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Centrodus, dérive du grec ancien κέντρον, kentron, « piquant, aiguillon », et ὀδόντος, odóntos, « dent ».
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Frederick M'Coy, « On some new Fossil Fish of the Carboniferous Period », Annals and Magazine of Natural History, Londres, Taylor &amp; Francis, vol. 2, no 7,‎ juillet 1848, p. 1–10 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/03745485809496133, lire en ligne)</t>
         </is>
